--- a/Assets/ExcelDatas/SkillUpgradeData.xlsx
+++ b/Assets/ExcelDatas/SkillUpgradeData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBFD4289-BD47-45B6-B075-7CBDF9840845}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -730,7 +730,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -738,7 +738,7 @@
     <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,7 +766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -794,7 +794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -808,7 +808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -822,7 +822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -860,11 +860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -876,7 +876,7 @@
     <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -922,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -945,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
@@ -959,7 +959,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>99</v>

--- a/Assets/ExcelDatas/SkillUpgradeData.xlsx
+++ b/Assets/ExcelDatas/SkillUpgradeData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBFD4289-BD47-45B6-B075-7CBDF9840845}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB61C27C-610A-4258-8D64-C61F90AB4FD8}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
+    <sheet name="Define" sheetId="6" r:id="rId1"/>
     <sheet name="SkillUpgradeTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
-  <si>
-    <t>ALL:KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>ALL</t>
   </si>
@@ -39,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DESIGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,100 +43,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PenetrateTaget</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고유 인덱스 값입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 스피드 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체가 맞는 대상의 수입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDamageControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬의 이름이 들어가는 주석입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 이름을 스트링테이블에서 가져옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 데미지 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 공격 속도입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬의 사거리 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}의 주문력을 {1}% 강화합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +88,10 @@
   </si>
   <si>
     <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__19.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamageControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,6 +206,38 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -321,38 +283,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -412,16 +342,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A3:G4" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,132 +654,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6329419-DE25-48C7-9BB0-F65E2B49D800}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="3" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -860,89 +676,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
@@ -950,13 +766,13 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
@@ -965,7 +781,7 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillUpgradeData.xlsx
+++ b/Assets/ExcelDatas/SkillUpgradeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB61C27C-610A-4258-8D64-C61F90AB4FD8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF94EE40-96EA-4B08-85C3-A5FCCD4C9493}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="2528" yWindow="2085" windowWidth="18645" windowHeight="10695" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ALL</t>
   </si>
@@ -91,7 +91,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillDamageControl</t>
+    <t>AttackDamageControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충만한마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 시전 속도를 {1}% 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저격수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사거리가 {1} 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,23 +198,11 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -328,6 +340,22 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -341,17 +369,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A3:G4" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+  <autoFilter ref="A3:G6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -674,10 +706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -784,6 +816,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="2">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="2">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelDatas/SkillUpgradeData.xlsx
+++ b/Assets/ExcelDatas/SkillUpgradeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF94EE40-96EA-4B08-85C3-A5FCCD4C9493}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7CC3F8-D25C-4D25-9D4E-0DE10CD38B01}"/>
   <bookViews>
-    <workbookView xWindow="2528" yWindow="2085" windowWidth="18645" windowHeight="10695" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}의 주문력을 {1}% 강화합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>RangeControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;Effect1&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,26 +196,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -342,6 +322,26 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -374,16 +374,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A3:G6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="Effect1" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EffectValue1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,7 +709,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -726,7 +726,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.6">
@@ -798,13 +798,13 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
@@ -813,7 +813,7 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
@@ -821,13 +821,13 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -841,13 +841,13 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
